--- a/outcome/appendix/data/forecast/Hepatitis B.xlsx
+++ b/outcome/appendix/data/forecast/Hepatitis B.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>102137.512229277</v>
+        <v>102298.670134596</v>
       </c>
       <c r="C2" t="n">
-        <v>93454.9844325728</v>
+        <v>95540.6446959948</v>
       </c>
       <c r="D2" t="n">
-        <v>89328.4440086871</v>
+        <v>88092.9347028984</v>
       </c>
       <c r="E2" t="n">
-        <v>110614.544828183</v>
+        <v>110616.060049072</v>
       </c>
       <c r="F2" t="n">
-        <v>115786.8518801</v>
+        <v>114009.775982593</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>91026</v>
       </c>
       <c r="I2" t="n">
-        <v>11111.5122292773</v>
+        <v>11272.6701345961</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>95655.3755900311</v>
+        <v>95826.8410427864</v>
       </c>
       <c r="C3" t="n">
-        <v>87053.7714784743</v>
+        <v>87529.872654455</v>
       </c>
       <c r="D3" t="n">
-        <v>81615.0232030361</v>
+        <v>83437.0844379044</v>
       </c>
       <c r="E3" t="n">
-        <v>104767.45174033</v>
+        <v>103463.143652882</v>
       </c>
       <c r="F3" t="n">
-        <v>113354.954568565</v>
+        <v>106282.331363963</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>51506</v>
       </c>
       <c r="I3" t="n">
-        <v>44149.3755900311</v>
+        <v>44320.8410427864</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>118386.348895831</v>
+        <v>119157.074661945</v>
       </c>
       <c r="C4" t="n">
-        <v>109389.192233424</v>
+        <v>110303.406354228</v>
       </c>
       <c r="D4" t="n">
-        <v>104520.396719727</v>
+        <v>106367.592185639</v>
       </c>
       <c r="E4" t="n">
-        <v>128421.23186036</v>
+        <v>127903.720916822</v>
       </c>
       <c r="F4" t="n">
-        <v>131973.177141526</v>
+        <v>133304.257919608</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>88150</v>
       </c>
       <c r="I4" t="n">
-        <v>30236.3488958311</v>
+        <v>31007.0746619451</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>109665.212425574</v>
+        <v>108866.040175675</v>
       </c>
       <c r="C5" t="n">
-        <v>100258.661610946</v>
+        <v>98405.3109643875</v>
       </c>
       <c r="D5" t="n">
-        <v>96994.0405243123</v>
+        <v>94601.7243637804</v>
       </c>
       <c r="E5" t="n">
-        <v>120024.703814344</v>
+        <v>118844.583404846</v>
       </c>
       <c r="F5" t="n">
-        <v>123871.024435903</v>
+        <v>124019.556628072</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>101262</v>
       </c>
       <c r="I5" t="n">
-        <v>8403.21242557414</v>
+        <v>7604.04017567489</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>107791.681437115</v>
+        <v>107170.584880604</v>
       </c>
       <c r="C6" t="n">
-        <v>97975.8224817153</v>
+        <v>96989.8955286126</v>
       </c>
       <c r="D6" t="n">
-        <v>95472.8908612572</v>
+        <v>92888.351206876</v>
       </c>
       <c r="E6" t="n">
-        <v>116926.918765125</v>
+        <v>116487.408192121</v>
       </c>
       <c r="F6" t="n">
-        <v>123911.435877886</v>
+        <v>120756.916992379</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>97651</v>
       </c>
       <c r="I6" t="n">
-        <v>10140.681437115</v>
+        <v>9519.58488060409</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>103624.482539337</v>
+        <v>103134.754926879</v>
       </c>
       <c r="C7" t="n">
-        <v>93487.2600578535</v>
+        <v>94125.0912074258</v>
       </c>
       <c r="D7" t="n">
-        <v>88745.242267325</v>
+        <v>89602.5422113402</v>
       </c>
       <c r="E7" t="n">
-        <v>113100.284590875</v>
+        <v>112888.097625362</v>
       </c>
       <c r="F7" t="n">
-        <v>118697.292848946</v>
+        <v>117660.692643617</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>99319</v>
       </c>
       <c r="I7" t="n">
-        <v>4305.48253933723</v>
+        <v>3815.7549268787</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>109540.612244243</v>
+        <v>108817.001199502</v>
       </c>
       <c r="C8" t="n">
-        <v>98573.4058184202</v>
+        <v>99293.3549231469</v>
       </c>
       <c r="D8" t="n">
-        <v>94694.114079533</v>
+        <v>93830.6576278275</v>
       </c>
       <c r="E8" t="n">
-        <v>119867.661839622</v>
+        <v>117921.075860454</v>
       </c>
       <c r="F8" t="n">
-        <v>123947.976892392</v>
+        <v>124341.42938077</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>102304</v>
       </c>
       <c r="I8" t="n">
-        <v>7236.61224424338</v>
+        <v>6513.00119950227</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>108748.019151504</v>
+        <v>108798.080316131</v>
       </c>
       <c r="C9" t="n">
-        <v>98017.4292844564</v>
+        <v>99263.5535630603</v>
       </c>
       <c r="D9" t="n">
-        <v>93490.1115610023</v>
+        <v>95220.8120017062</v>
       </c>
       <c r="E9" t="n">
-        <v>119659.480415656</v>
+        <v>118214.338759963</v>
       </c>
       <c r="F9" t="n">
-        <v>124336.198078156</v>
+        <v>124298.123420872</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>102304</v>
       </c>
       <c r="I9" t="n">
-        <v>6444.01915150382</v>
+        <v>6494.08031613099</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>100659.423401</v>
+        <v>100234.97323576</v>
       </c>
       <c r="C10" t="n">
-        <v>89829.2445049993</v>
+        <v>89638.1919558692</v>
       </c>
       <c r="D10" t="n">
-        <v>85157.0844083228</v>
+        <v>86074.7430651945</v>
       </c>
       <c r="E10" t="n">
-        <v>111573.801424146</v>
+        <v>110478.725104279</v>
       </c>
       <c r="F10" t="n">
-        <v>115748.389605951</v>
+        <v>118212.068261025</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>105377</v>
       </c>
       <c r="I10" t="n">
-        <v>-4717.5765989997</v>
+        <v>-5142.02676423993</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>98798.1983715068</v>
+        <v>98253.1682001424</v>
       </c>
       <c r="C11" t="n">
-        <v>88713.617703746</v>
+        <v>87381.1505678695</v>
       </c>
       <c r="D11" t="n">
-        <v>82135.285614817</v>
+        <v>81960.4349021409</v>
       </c>
       <c r="E11" t="n">
-        <v>109581.714701179</v>
+        <v>107259.844530212</v>
       </c>
       <c r="F11" t="n">
-        <v>113270.541360135</v>
+        <v>116811.016639211</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>95633</v>
       </c>
       <c r="I11" t="n">
-        <v>3165.19837150685</v>
+        <v>2620.16820014236</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>102302.095633573</v>
+        <v>101601.689994875</v>
       </c>
       <c r="C12" t="n">
-        <v>89402.9034419929</v>
+        <v>90565.3347868471</v>
       </c>
       <c r="D12" t="n">
-        <v>85262.1932812949</v>
+        <v>84598.0585947585</v>
       </c>
       <c r="E12" t="n">
-        <v>113463.324712694</v>
+        <v>113229.203471084</v>
       </c>
       <c r="F12" t="n">
-        <v>119692.343313211</v>
+        <v>118040.804992655</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>100561</v>
       </c>
       <c r="I12" t="n">
-        <v>1741.09563357345</v>
+        <v>1040.68999487467</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>101836.636883141</v>
+        <v>101389.338654287</v>
       </c>
       <c r="C13" t="n">
-        <v>91073.6508805752</v>
+        <v>89013.1152999515</v>
       </c>
       <c r="D13" t="n">
-        <v>84853.9686822543</v>
+        <v>84053.907522311</v>
       </c>
       <c r="E13" t="n">
-        <v>112953.332247047</v>
+        <v>112512.998744861</v>
       </c>
       <c r="F13" t="n">
-        <v>117626.009257837</v>
+        <v>117729.185713613</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>100209</v>
       </c>
       <c r="I13" t="n">
-        <v>1627.63688314082</v>
+        <v>1180.33865428701</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>103340.241221389</v>
+        <v>103363.301620699</v>
       </c>
       <c r="C14" t="n">
-        <v>91143.9495967488</v>
+        <v>92791.5577624769</v>
       </c>
       <c r="D14" t="n">
-        <v>86040.8022364394</v>
+        <v>83410.8454280718</v>
       </c>
       <c r="E14" t="n">
-        <v>113879.069826009</v>
+        <v>113654.39324708</v>
       </c>
       <c r="F14" t="n">
-        <v>119970.994297692</v>
+        <v>119984.641299502</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>98257</v>
       </c>
       <c r="I14" t="n">
-        <v>5083.24122138901</v>
+        <v>5106.30162069942</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>96355.0512424972</v>
+        <v>95690.0071851436</v>
       </c>
       <c r="C15" t="n">
-        <v>84345.9160626846</v>
+        <v>84716.9204803968</v>
       </c>
       <c r="D15" t="n">
-        <v>79542.1392432874</v>
+        <v>78350.8895364948</v>
       </c>
       <c r="E15" t="n">
-        <v>108531.166044769</v>
+        <v>106775.30982905</v>
       </c>
       <c r="F15" t="n">
-        <v>115787.334874532</v>
+        <v>113430.09350478</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>83014</v>
       </c>
       <c r="I15" t="n">
-        <v>13341.0512424972</v>
+        <v>12676.0071851436</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>119487.060080322</v>
+        <v>118557.25257768</v>
       </c>
       <c r="C16" t="n">
-        <v>107930.160423163</v>
+        <v>105656.317289892</v>
       </c>
       <c r="D16" t="n">
-        <v>100412.309269233</v>
+        <v>100091.093192742</v>
       </c>
       <c r="E16" t="n">
-        <v>131332.287193938</v>
+        <v>129134.764224268</v>
       </c>
       <c r="F16" t="n">
-        <v>136438.57924021</v>
+        <v>135174.454936742</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,10 +896,10 @@
         <v>119423</v>
       </c>
       <c r="I16" t="n">
-        <v>64.0600803219713</v>
+        <v>-865.747422319924</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>109783.794122886</v>
+        <v>109835.058530763</v>
       </c>
       <c r="C17" t="n">
-        <v>96809.8760035974</v>
+        <v>98236.9020769353</v>
       </c>
       <c r="D17" t="n">
-        <v>89610.1380724209</v>
+        <v>94499.7443361931</v>
       </c>
       <c r="E17" t="n">
-        <v>121362.612278339</v>
+        <v>120328.711995758</v>
       </c>
       <c r="F17" t="n">
-        <v>127311.62164977</v>
+        <v>126393.347042868</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>110385</v>
       </c>
       <c r="I17" t="n">
-        <v>-601.205877114175</v>
+        <v>-549.941469236932</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>108598.528606579</v>
+        <v>107038.031971273</v>
       </c>
       <c r="C18" t="n">
-        <v>96195.3969930276</v>
+        <v>94038.0405705745</v>
       </c>
       <c r="D18" t="n">
-        <v>88070.1558645417</v>
+        <v>89694.4825394052</v>
       </c>
       <c r="E18" t="n">
-        <v>120930.737219164</v>
+        <v>120415.394507972</v>
       </c>
       <c r="F18" t="n">
-        <v>125439.691359926</v>
+        <v>128169.945303003</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>105393</v>
       </c>
       <c r="I18" t="n">
-        <v>3205.52860657903</v>
+        <v>1645.0319712725</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>103328.288158164</v>
+        <v>102714.003854148</v>
       </c>
       <c r="C19" t="n">
-        <v>89851.7054857087</v>
+        <v>91605.5477800247</v>
       </c>
       <c r="D19" t="n">
-        <v>83069.7353988836</v>
+        <v>84685.7213886162</v>
       </c>
       <c r="E19" t="n">
-        <v>116456.42375234</v>
+        <v>114099.258595464</v>
       </c>
       <c r="F19" t="n">
-        <v>123010.132443298</v>
+        <v>118801.715456714</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>101633</v>
       </c>
       <c r="I19" t="n">
-        <v>1695.28815816357</v>
+        <v>1081.00385414783</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>110224.295194421</v>
+        <v>108966.14750228</v>
       </c>
       <c r="C20" t="n">
-        <v>94838.4356121034</v>
+        <v>96221.2495293222</v>
       </c>
       <c r="D20" t="n">
-        <v>87413.8026125108</v>
+        <v>87730.7086466225</v>
       </c>
       <c r="E20" t="n">
-        <v>123937.33140566</v>
+        <v>120958.165217976</v>
       </c>
       <c r="F20" t="n">
-        <v>129351.476423584</v>
+        <v>127021.896434381</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>112287</v>
       </c>
       <c r="I20" t="n">
-        <v>-2062.70480557912</v>
+        <v>-3320.85249772</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>109776.947803916</v>
+        <v>109272.545709511</v>
       </c>
       <c r="C21" t="n">
-        <v>95707.4050771453</v>
+        <v>96982.116936506</v>
       </c>
       <c r="D21" t="n">
-        <v>88056.0850314882</v>
+        <v>87682.4221560599</v>
       </c>
       <c r="E21" t="n">
-        <v>123768.727517712</v>
+        <v>122308.197672805</v>
       </c>
       <c r="F21" t="n">
-        <v>129050.827459988</v>
+        <v>131231.308787425</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>102061</v>
       </c>
       <c r="I21" t="n">
-        <v>7715.94780391616</v>
+        <v>7211.5457095107</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>102236.266351506</v>
+        <v>100499.04058376</v>
       </c>
       <c r="C22" t="n">
-        <v>88212.3090668825</v>
+        <v>85749.952888756</v>
       </c>
       <c r="D22" t="n">
-        <v>75960.6172210933</v>
+        <v>78613.7838959501</v>
       </c>
       <c r="E22" t="n">
-        <v>116635.347446408</v>
+        <v>113598.358885339</v>
       </c>
       <c r="F22" t="n">
-        <v>123400.463766592</v>
+        <v>119486.405169342</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,10 +1088,10 @@
         <v>101701</v>
       </c>
       <c r="I22" t="n">
-        <v>535.26635150591</v>
+        <v>-1201.95941623954</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>99333.8365411973</v>
+        <v>98458.3774440762</v>
       </c>
       <c r="C23" t="n">
-        <v>83672.8819336991</v>
+        <v>83348.6378667123</v>
       </c>
       <c r="D23" t="n">
-        <v>79526.3601423337</v>
+        <v>76781.731937332</v>
       </c>
       <c r="E23" t="n">
-        <v>112672.500509454</v>
+        <v>112562.50177281</v>
       </c>
       <c r="F23" t="n">
-        <v>120293.128646005</v>
+        <v>119768.406794057</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>95942</v>
       </c>
       <c r="I23" t="n">
-        <v>3391.83654119734</v>
+        <v>2516.37744407625</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>102913.160536391</v>
+        <v>101438.987106963</v>
       </c>
       <c r="C24" t="n">
-        <v>87907.3219261945</v>
+        <v>89647.1102982218</v>
       </c>
       <c r="D24" t="n">
-        <v>78450.5076160781</v>
+        <v>78498.8309156265</v>
       </c>
       <c r="E24" t="n">
-        <v>117406.174044461</v>
+        <v>113901.64974041</v>
       </c>
       <c r="F24" t="n">
-        <v>123024.337625572</v>
+        <v>120803.497159426</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,10 +1152,10 @@
         <v>102598</v>
       </c>
       <c r="I24" t="n">
-        <v>315.160536391457</v>
+        <v>-1159.01289303672</v>
       </c>
       <c r="J24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>103742.614112979</v>
+        <v>101519.182301027</v>
       </c>
       <c r="C25" t="n">
-        <v>89228.8381888865</v>
+        <v>87448.4991470692</v>
       </c>
       <c r="D25" t="n">
-        <v>79858.7692733471</v>
+        <v>78707.9106074002</v>
       </c>
       <c r="E25" t="n">
-        <v>117788.7647569</v>
+        <v>115474.538668296</v>
       </c>
       <c r="F25" t="n">
-        <v>127075.721933975</v>
+        <v>124534.653895013</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>108157</v>
       </c>
       <c r="I25" t="n">
-        <v>-4414.38588702113</v>
+        <v>-6637.81769897255</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>103399.102570038</v>
+        <v>103519.459232174</v>
       </c>
       <c r="C26" t="n">
-        <v>87171.9854843457</v>
+        <v>87666.3894791565</v>
       </c>
       <c r="D26" t="n">
-        <v>77252.9121814401</v>
+        <v>76029.4099193211</v>
       </c>
       <c r="E26" t="n">
-        <v>119522.916849431</v>
+        <v>118870.805155443</v>
       </c>
       <c r="F26" t="n">
-        <v>125855.632488105</v>
+        <v>128382.341667272</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>109531</v>
       </c>
       <c r="I26" t="n">
-        <v>-6131.89742996184</v>
+        <v>-6011.54076782639</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>97712.6796297138</v>
+        <v>95472.7652742265</v>
       </c>
       <c r="C27" t="n">
-        <v>81992.786820997</v>
+        <v>81756.9405654818</v>
       </c>
       <c r="D27" t="n">
-        <v>72994.4489953281</v>
+        <v>67825.432892248</v>
       </c>
       <c r="E27" t="n">
-        <v>111244.584482973</v>
+        <v>110222.605187097</v>
       </c>
       <c r="F27" t="n">
-        <v>119228.128683384</v>
+        <v>120447.181087445</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,10 +1248,10 @@
         <v>96787</v>
       </c>
       <c r="I27" t="n">
-        <v>925.679629713821</v>
+        <v>-1314.23472577354</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>120267.806130526</v>
+        <v>118786.712249223</v>
       </c>
       <c r="C28" t="n">
-        <v>105002.196314769</v>
+        <v>101984.006953362</v>
       </c>
       <c r="D28" t="n">
-        <v>101436.921082463</v>
+        <v>93216.0077059961</v>
       </c>
       <c r="E28" t="n">
-        <v>133820.969222534</v>
+        <v>134545.818582269</v>
       </c>
       <c r="F28" t="n">
-        <v>144162.447244113</v>
+        <v>141534.748437636</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>114003</v>
       </c>
       <c r="I28" t="n">
-        <v>6264.80613052643</v>
+        <v>4783.71224922292</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>111180.589133144</v>
+        <v>108911.71026545</v>
       </c>
       <c r="C29" t="n">
-        <v>93765.6134163331</v>
+        <v>92901.803662166</v>
       </c>
       <c r="D29" t="n">
-        <v>88198.8841079364</v>
+        <v>80273.7495888816</v>
       </c>
       <c r="E29" t="n">
-        <v>125286.957034053</v>
+        <v>123978.092959614</v>
       </c>
       <c r="F29" t="n">
-        <v>134137.656940947</v>
+        <v>134177.709915302</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>95933</v>
       </c>
       <c r="I29" t="n">
-        <v>15247.589133144</v>
+        <v>12978.7102654499</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>110582.755641319</v>
+        <v>108666.17660849</v>
       </c>
       <c r="C30" t="n">
-        <v>95407.3430532268</v>
+        <v>93237.7918208784</v>
       </c>
       <c r="D30" t="n">
-        <v>86901.7167242125</v>
+        <v>82581.4406187116</v>
       </c>
       <c r="E30" t="n">
-        <v>124100.12046174</v>
+        <v>123699.521471153</v>
       </c>
       <c r="F30" t="n">
-        <v>134686.130137111</v>
+        <v>130794.002577818</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>102912</v>
       </c>
       <c r="I30" t="n">
-        <v>7670.75564131909</v>
+        <v>5754.17660849016</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>104519.153285679</v>
+        <v>103325.074469957</v>
       </c>
       <c r="C31" t="n">
-        <v>87561.9749118339</v>
+        <v>87682.0150094303</v>
       </c>
       <c r="D31" t="n">
-        <v>80778.2575778991</v>
+        <v>76477.271953444</v>
       </c>
       <c r="E31" t="n">
-        <v>119756.192470433</v>
+        <v>118857.04056771</v>
       </c>
       <c r="F31" t="n">
-        <v>127298.660466695</v>
+        <v>127933.172178534</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>106846</v>
       </c>
       <c r="I31" t="n">
-        <v>-2326.84671432072</v>
+        <v>-3520.92553004299</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>111727.268891475</v>
+        <v>110367.555298735</v>
       </c>
       <c r="C32" t="n">
-        <v>94988.4458067184</v>
+        <v>96229.4418094816</v>
       </c>
       <c r="D32" t="n">
-        <v>87236.8451932365</v>
+        <v>85233.546856404</v>
       </c>
       <c r="E32" t="n">
-        <v>126656.36488241</v>
+        <v>126620.942303458</v>
       </c>
       <c r="F32" t="n">
-        <v>135795.182997682</v>
+        <v>136226.173782882</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>112648</v>
       </c>
       <c r="I32" t="n">
-        <v>-920.731108525346</v>
+        <v>-2280.44470126515</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>111578.280076884</v>
+        <v>109341.490109569</v>
       </c>
       <c r="C33" t="n">
-        <v>93853.0943716888</v>
+        <v>92104.5986131537</v>
       </c>
       <c r="D33" t="n">
-        <v>86382.9110474608</v>
+        <v>78861.4376824393</v>
       </c>
       <c r="E33" t="n">
-        <v>127145.933507854</v>
+        <v>124521.084919936</v>
       </c>
       <c r="F33" t="n">
-        <v>134814.028557832</v>
+        <v>133162.680704199</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>115375</v>
       </c>
       <c r="I33" t="n">
-        <v>-3796.71992311643</v>
+        <v>-6033.50989043139</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>102737.321973129</v>
+        <v>100655.032345732</v>
       </c>
       <c r="C34" t="n">
-        <v>86288.8213719539</v>
+        <v>82335.6798221176</v>
       </c>
       <c r="D34" t="n">
-        <v>78518.7366149765</v>
+        <v>73725.2850829466</v>
       </c>
       <c r="E34" t="n">
-        <v>119041.431636396</v>
+        <v>116840.131541711</v>
       </c>
       <c r="F34" t="n">
-        <v>132306.312482917</v>
+        <v>125896.477425554</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,10 +1472,10 @@
         <v>101083</v>
       </c>
       <c r="I34" t="n">
-        <v>1654.32197312906</v>
+        <v>-427.967654268068</v>
       </c>
       <c r="J34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>100507.626378087</v>
+        <v>99130.1351638771</v>
       </c>
       <c r="C35" t="n">
-        <v>82104.28614535</v>
+        <v>80847.6580475611</v>
       </c>
       <c r="D35" t="n">
-        <v>75403.3093497617</v>
+        <v>68422.3784480017</v>
       </c>
       <c r="E35" t="n">
-        <v>116223.879907408</v>
+        <v>117120.596509911</v>
       </c>
       <c r="F35" t="n">
-        <v>127040.996870949</v>
+        <v>123173.954772165</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>90015</v>
       </c>
       <c r="I35" t="n">
-        <v>10492.626378087</v>
+        <v>9115.13516387709</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>104635.628378655</v>
+        <v>103453.566927349</v>
       </c>
       <c r="C36" t="n">
-        <v>86710.4692722754</v>
+        <v>86014.054958773</v>
       </c>
       <c r="D36" t="n">
-        <v>77267.1954341822</v>
+        <v>75043.1959867412</v>
       </c>
       <c r="E36" t="n">
-        <v>121909.610716811</v>
+        <v>122261.291808015</v>
       </c>
       <c r="F36" t="n">
-        <v>127182.395778892</v>
+        <v>131230.023558473</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>86371</v>
       </c>
       <c r="I36" t="n">
-        <v>18264.628378655</v>
+        <v>17082.5669273485</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>104234.159766749</v>
+        <v>102261.519678407</v>
       </c>
       <c r="C37" t="n">
-        <v>87011.0864257934</v>
+        <v>84545.6150520111</v>
       </c>
       <c r="D37" t="n">
-        <v>80331.6510901432</v>
+        <v>72986.6122705287</v>
       </c>
       <c r="E37" t="n">
-        <v>120853.119184068</v>
+        <v>120438.025646081</v>
       </c>
       <c r="F37" t="n">
-        <v>127264.404905527</v>
+        <v>129534.633998679</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>59498</v>
       </c>
       <c r="I37" t="n">
-        <v>44736.1597667491</v>
+        <v>42763.5196784072</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>105543.612709239</v>
+        <v>102827.759410692</v>
       </c>
       <c r="C38" t="n">
-        <v>86219.3936414355</v>
+        <v>83865.1660148164</v>
       </c>
       <c r="D38" t="n">
-        <v>78707.1456423826</v>
+        <v>73932.0707285099</v>
       </c>
       <c r="E38" t="n">
-        <v>122528.205681999</v>
+        <v>122119.609078924</v>
       </c>
       <c r="F38" t="n">
-        <v>130547.984062042</v>
+        <v>135043.015690415</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>74790</v>
       </c>
       <c r="I38" t="n">
-        <v>30753.6127092387</v>
+        <v>28037.7594106916</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>98890.8713440467</v>
+        <v>97102.7041906005</v>
       </c>
       <c r="C39" t="n">
-        <v>80596.2183284209</v>
+        <v>78765.1035066193</v>
       </c>
       <c r="D39" t="n">
-        <v>72348.7810503525</v>
+        <v>67857.1007688195</v>
       </c>
       <c r="E39" t="n">
-        <v>115794.545947678</v>
+        <v>116798.133649099</v>
       </c>
       <c r="F39" t="n">
-        <v>122045.816833629</v>
+        <v>127402.931691402</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>116063</v>
       </c>
       <c r="I39" t="n">
-        <v>-17172.1286559533</v>
+        <v>-18960.2958093995</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>121062.36331124</v>
+        <v>119393.607705133</v>
       </c>
       <c r="C40" t="n">
-        <v>102190.658204162</v>
+        <v>99258.609156241</v>
       </c>
       <c r="D40" t="n">
-        <v>93929.3439643177</v>
+        <v>89340.5479689106</v>
       </c>
       <c r="E40" t="n">
-        <v>137147.885953642</v>
+        <v>138452.885803007</v>
       </c>
       <c r="F40" t="n">
-        <v>146559.806429366</v>
+        <v>147953.269479589</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>126932</v>
       </c>
       <c r="I40" t="n">
-        <v>-5869.6366887605</v>
+        <v>-7538.39229486715</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>112510.885699377</v>
+        <v>109880.058157157</v>
       </c>
       <c r="C41" t="n">
-        <v>94452.7155328507</v>
+        <v>90410.4801120039</v>
       </c>
       <c r="D41" t="n">
-        <v>85594.9251602267</v>
+        <v>82805.7888769572</v>
       </c>
       <c r="E41" t="n">
-        <v>128981.994122266</v>
+        <v>127833.667135551</v>
       </c>
       <c r="F41" t="n">
-        <v>139837.880899934</v>
+        <v>136404.352828334</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>116400</v>
       </c>
       <c r="I41" t="n">
-        <v>-3889.11430062306</v>
+        <v>-6519.94184284277</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>110707.199717822</v>
+        <v>108257.396821957</v>
       </c>
       <c r="C42" t="n">
-        <v>90171.1016387421</v>
+        <v>88679.7122062125</v>
       </c>
       <c r="D42" t="n">
-        <v>83139.3964919492</v>
+        <v>78842.5971192362</v>
       </c>
       <c r="E42" t="n">
-        <v>128102.67683094</v>
+        <v>127175.017699769</v>
       </c>
       <c r="F42" t="n">
-        <v>137684.761481403</v>
+        <v>137214.39975472</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>115934</v>
       </c>
       <c r="I42" t="n">
-        <v>-5226.80028217827</v>
+        <v>-7676.60317804331</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>105834.05977935</v>
+        <v>103341.875335412</v>
       </c>
       <c r="C43" t="n">
-        <v>85359.1999983969</v>
+        <v>82818.7461285227</v>
       </c>
       <c r="D43" t="n">
-        <v>75871.1571646355</v>
+        <v>73412.0691851546</v>
       </c>
       <c r="E43" t="n">
-        <v>124153.541682933</v>
+        <v>123445.271943092</v>
       </c>
       <c r="F43" t="n">
-        <v>131715.059715401</v>
+        <v>136594.269430415</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>110063</v>
       </c>
       <c r="I43" t="n">
-        <v>-4228.94022064959</v>
+        <v>-6721.12466458819</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>113031.056344531</v>
+        <v>111170.048385354</v>
       </c>
       <c r="C44" t="n">
-        <v>93672.9316356412</v>
+        <v>91423.8865534161</v>
       </c>
       <c r="D44" t="n">
-        <v>84141.1136775772</v>
+        <v>77618.5705350847</v>
       </c>
       <c r="E44" t="n">
-        <v>130559.44629588</v>
+        <v>129995.975389325</v>
       </c>
       <c r="F44" t="n">
-        <v>140596.877136153</v>
+        <v>145731.862259283</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>125116</v>
       </c>
       <c r="I44" t="n">
-        <v>-12084.9436554694</v>
+        <v>-13945.9516146462</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>112621.079771707</v>
+        <v>110652.786154448</v>
       </c>
       <c r="C45" t="n">
-        <v>94374.1792553307</v>
+        <v>90973.2187806295</v>
       </c>
       <c r="D45" t="n">
-        <v>86957.3262732778</v>
+        <v>82103.4979313152</v>
       </c>
       <c r="E45" t="n">
-        <v>132148.614643301</v>
+        <v>131869.340528219</v>
       </c>
       <c r="F45" t="n">
-        <v>139726.889826706</v>
+        <v>144289.796898232</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>138875</v>
       </c>
       <c r="I45" t="n">
-        <v>-26253.9202282931</v>
+        <v>-28222.213845552</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>103627.999113623</v>
+        <v>101484.545360559</v>
       </c>
       <c r="C46" t="n">
-        <v>84231.9313613992</v>
+        <v>78057.0950321595</v>
       </c>
       <c r="D46" t="n">
-        <v>71904.5169665508</v>
+        <v>68819.5678951075</v>
       </c>
       <c r="E46" t="n">
-        <v>123296.626143067</v>
+        <v>121905.230706315</v>
       </c>
       <c r="F46" t="n">
-        <v>129241.818664162</v>
+        <v>138823.981023281</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>123495</v>
       </c>
       <c r="I46" t="n">
-        <v>-19867.0008863774</v>
+        <v>-22010.4546394406</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>101943.828802646</v>
+        <v>98807.5096304694</v>
       </c>
       <c r="C47" t="n">
-        <v>82397.1967009826</v>
+        <v>77412.8213083349</v>
       </c>
       <c r="D47" t="n">
-        <v>69382.7551099655</v>
+        <v>64243.5087976046</v>
       </c>
       <c r="E47" t="n">
-        <v>121812.83220066</v>
+        <v>120694.926630345</v>
       </c>
       <c r="F47" t="n">
-        <v>134524.354021212</v>
+        <v>130575.833532657</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>129041</v>
       </c>
       <c r="I47" t="n">
-        <v>-27097.1711973541</v>
+        <v>-30233.4903695306</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>105863.418334412</v>
+        <v>102164.902798288</v>
       </c>
       <c r="C48" t="n">
-        <v>84475.6182085219</v>
+        <v>81467.3278543637</v>
       </c>
       <c r="D48" t="n">
-        <v>78879.0396434338</v>
+        <v>71908.3757570809</v>
       </c>
       <c r="E48" t="n">
-        <v>127565.426534239</v>
+        <v>123654.502084802</v>
       </c>
       <c r="F48" t="n">
-        <v>133657.488606157</v>
+        <v>137211.230528039</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>132270</v>
       </c>
       <c r="I48" t="n">
-        <v>-26406.5816655885</v>
+        <v>-30105.0972017124</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>105181.864321447</v>
+        <v>102703.595757588</v>
       </c>
       <c r="C49" t="n">
-        <v>83902.9824454884</v>
+        <v>80431.556440804</v>
       </c>
       <c r="D49" t="n">
-        <v>76000.4324971635</v>
+        <v>74529.0547420152</v>
       </c>
       <c r="E49" t="n">
-        <v>124143.577184514</v>
+        <v>124663.904330357</v>
       </c>
       <c r="F49" t="n">
-        <v>138183.475228331</v>
+        <v>131540.299534322</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>121415</v>
       </c>
       <c r="I49" t="n">
-        <v>-16233.1356785535</v>
+        <v>-18711.4042424122</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/data/forecast/Hepatitis B.xlsx
+++ b/outcome/appendix/data/forecast/Hepatitis B.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>102298.670134596</v>
+        <v>103004.899105042</v>
       </c>
       <c r="C2" t="n">
-        <v>95540.6446959948</v>
+        <v>94245.5969088536</v>
       </c>
       <c r="D2" t="n">
-        <v>88092.9347028984</v>
+        <v>90740.4077487144</v>
       </c>
       <c r="E2" t="n">
-        <v>110616.060049072</v>
+        <v>111665.69186748</v>
       </c>
       <c r="F2" t="n">
-        <v>114009.775982593</v>
+        <v>118093.898943271</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>91026</v>
       </c>
       <c r="I2" t="n">
-        <v>11272.6701345961</v>
+        <v>11978.8991050422</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>95826.8410427864</v>
+        <v>95838.2173785042</v>
       </c>
       <c r="C3" t="n">
-        <v>87529.872654455</v>
+        <v>87124.5742849404</v>
       </c>
       <c r="D3" t="n">
-        <v>83437.0844379044</v>
+        <v>82486.9877351503</v>
       </c>
       <c r="E3" t="n">
-        <v>103463.143652882</v>
+        <v>104629.614861765</v>
       </c>
       <c r="F3" t="n">
-        <v>106282.331363963</v>
+        <v>111987.54133572</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>51506</v>
       </c>
       <c r="I3" t="n">
-        <v>44320.8410427864</v>
+        <v>44332.2173785042</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>119157.074661945</v>
+        <v>118586.483175276</v>
       </c>
       <c r="C4" t="n">
-        <v>110303.406354228</v>
+        <v>109713.269911892</v>
       </c>
       <c r="D4" t="n">
-        <v>106367.592185639</v>
+        <v>103603.442307839</v>
       </c>
       <c r="E4" t="n">
-        <v>127903.720916822</v>
+        <v>127747.284032308</v>
       </c>
       <c r="F4" t="n">
-        <v>133304.257919608</v>
+        <v>132705.835927855</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>88150</v>
       </c>
       <c r="I4" t="n">
-        <v>31007.0746619451</v>
+        <v>30436.4831752763</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>108866.040175675</v>
+        <v>109514.082669467</v>
       </c>
       <c r="C5" t="n">
-        <v>98405.3109643875</v>
+        <v>98955.6623610635</v>
       </c>
       <c r="D5" t="n">
-        <v>94601.7243637804</v>
+        <v>95727.9205290991</v>
       </c>
       <c r="E5" t="n">
-        <v>118844.583404846</v>
+        <v>119612.909849434</v>
       </c>
       <c r="F5" t="n">
-        <v>124019.556628072</v>
+        <v>126034.060212491</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>101262</v>
       </c>
       <c r="I5" t="n">
-        <v>7604.04017567489</v>
+        <v>8252.08266946745</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>107170.584880604</v>
+        <v>107933.083289722</v>
       </c>
       <c r="C6" t="n">
-        <v>96989.8955286126</v>
+        <v>98041.0327808794</v>
       </c>
       <c r="D6" t="n">
-        <v>92888.351206876</v>
+        <v>92776.7371161677</v>
       </c>
       <c r="E6" t="n">
-        <v>116487.408192121</v>
+        <v>118468.723718315</v>
       </c>
       <c r="F6" t="n">
-        <v>120756.916992379</v>
+        <v>124863.768210529</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>97651</v>
       </c>
       <c r="I6" t="n">
-        <v>9519.58488060409</v>
+        <v>10282.0832897224</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>103134.754926879</v>
+        <v>103215.554889397</v>
       </c>
       <c r="C7" t="n">
-        <v>94125.0912074258</v>
+        <v>92889.3479350437</v>
       </c>
       <c r="D7" t="n">
-        <v>89602.5422113402</v>
+        <v>89668.5065235816</v>
       </c>
       <c r="E7" t="n">
-        <v>112888.097625362</v>
+        <v>113733.815567278</v>
       </c>
       <c r="F7" t="n">
-        <v>117660.692643617</v>
+        <v>117613.459762922</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>99319</v>
       </c>
       <c r="I7" t="n">
-        <v>3815.7549268787</v>
+        <v>3896.55488939724</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>108817.001199502</v>
+        <v>110280.457750578</v>
       </c>
       <c r="C8" t="n">
-        <v>99293.3549231469</v>
+        <v>99880.6272884138</v>
       </c>
       <c r="D8" t="n">
-        <v>93830.6576278275</v>
+        <v>95668.051048295</v>
       </c>
       <c r="E8" t="n">
-        <v>117921.075860454</v>
+        <v>119003.485411287</v>
       </c>
       <c r="F8" t="n">
-        <v>124341.42938077</v>
+        <v>126771.113744985</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>102304</v>
       </c>
       <c r="I8" t="n">
-        <v>6513.00119950227</v>
+        <v>7976.45775057777</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>108798.080316131</v>
+        <v>109322.268051481</v>
       </c>
       <c r="C9" t="n">
-        <v>99263.5535630603</v>
+        <v>98503.8880348307</v>
       </c>
       <c r="D9" t="n">
-        <v>95220.8120017062</v>
+        <v>92023.5435606627</v>
       </c>
       <c r="E9" t="n">
-        <v>118214.338759963</v>
+        <v>120851.648956231</v>
       </c>
       <c r="F9" t="n">
-        <v>124298.123420872</v>
+        <v>128286.595091767</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>102304</v>
       </c>
       <c r="I9" t="n">
-        <v>6494.08031613099</v>
+        <v>7018.26805148082</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>100234.97323576</v>
+        <v>101596.295064625</v>
       </c>
       <c r="C10" t="n">
-        <v>89638.1919558692</v>
+        <v>91463.3514634936</v>
       </c>
       <c r="D10" t="n">
-        <v>86074.7430651945</v>
+        <v>86924.6956812877</v>
       </c>
       <c r="E10" t="n">
-        <v>110478.725104279</v>
+        <v>112367.76899608</v>
       </c>
       <c r="F10" t="n">
-        <v>118212.068261025</v>
+        <v>116862.482026297</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>105377</v>
       </c>
       <c r="I10" t="n">
-        <v>-5142.02676423993</v>
+        <v>-3780.70493537511</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>98253.1682001424</v>
+        <v>98799.9283105577</v>
       </c>
       <c r="C11" t="n">
-        <v>87381.1505678695</v>
+        <v>88444.3656864432</v>
       </c>
       <c r="D11" t="n">
-        <v>81960.4349021409</v>
+        <v>83535.7347103715</v>
       </c>
       <c r="E11" t="n">
-        <v>107259.844530212</v>
+        <v>109779.313867278</v>
       </c>
       <c r="F11" t="n">
-        <v>116811.016639211</v>
+        <v>114222.593050176</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>95633</v>
       </c>
       <c r="I11" t="n">
-        <v>2620.16820014236</v>
+        <v>3166.92831055769</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>101601.689994875</v>
+        <v>102682.308821324</v>
       </c>
       <c r="C12" t="n">
-        <v>90565.3347868471</v>
+        <v>91702.0978361424</v>
       </c>
       <c r="D12" t="n">
-        <v>84598.0585947585</v>
+        <v>87151.2690034523</v>
       </c>
       <c r="E12" t="n">
-        <v>113229.203471084</v>
+        <v>115081.82692941</v>
       </c>
       <c r="F12" t="n">
-        <v>118040.804992655</v>
+        <v>120035.235585947</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>100561</v>
       </c>
       <c r="I12" t="n">
-        <v>1040.68999487467</v>
+        <v>2121.30882132376</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>101389.338654287</v>
+        <v>101535.552158149</v>
       </c>
       <c r="C13" t="n">
-        <v>89013.1152999515</v>
+        <v>88493.9146064662</v>
       </c>
       <c r="D13" t="n">
-        <v>84053.907522311</v>
+        <v>85019.0545384734</v>
       </c>
       <c r="E13" t="n">
-        <v>112512.998744861</v>
+        <v>112793.316120033</v>
       </c>
       <c r="F13" t="n">
-        <v>117729.185713613</v>
+        <v>118537.344697215</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>100209</v>
       </c>
       <c r="I13" t="n">
-        <v>1180.33865428701</v>
+        <v>1326.55215814876</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>103363.301620699</v>
+        <v>103165.622792979</v>
       </c>
       <c r="C14" t="n">
-        <v>92791.5577624769</v>
+        <v>90759.0981596399</v>
       </c>
       <c r="D14" t="n">
-        <v>83410.8454280718</v>
+        <v>84237.7612155904</v>
       </c>
       <c r="E14" t="n">
-        <v>113654.39324708</v>
+        <v>113946.089619614</v>
       </c>
       <c r="F14" t="n">
-        <v>119984.641299502</v>
+        <v>120459.375103769</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>98257</v>
       </c>
       <c r="I14" t="n">
-        <v>5106.30162069942</v>
+        <v>4908.62279297916</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>95690.0071851436</v>
+        <v>96430.0979944218</v>
       </c>
       <c r="C15" t="n">
-        <v>84716.9204803968</v>
+        <v>86075.327242093</v>
       </c>
       <c r="D15" t="n">
-        <v>78350.8895364948</v>
+        <v>78035.9731154928</v>
       </c>
       <c r="E15" t="n">
-        <v>106775.30982905</v>
+        <v>109107.696576448</v>
       </c>
       <c r="F15" t="n">
-        <v>113430.09350478</v>
+        <v>113207.351297206</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>83014</v>
       </c>
       <c r="I15" t="n">
-        <v>12676.0071851436</v>
+        <v>13416.0979944218</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>118557.25257768</v>
+        <v>119552.013134193</v>
       </c>
       <c r="C16" t="n">
-        <v>105656.317289892</v>
+        <v>107592.39212441</v>
       </c>
       <c r="D16" t="n">
-        <v>100091.093192742</v>
+        <v>100670.297526378</v>
       </c>
       <c r="E16" t="n">
-        <v>129134.764224268</v>
+        <v>132463.545279023</v>
       </c>
       <c r="F16" t="n">
-        <v>135174.454936742</v>
+        <v>137231.46016688</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,10 +896,10 @@
         <v>119423</v>
       </c>
       <c r="I16" t="n">
-        <v>-865.747422319924</v>
+        <v>129.013134192835</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>109835.058530763</v>
+        <v>109579.141607942</v>
       </c>
       <c r="C17" t="n">
-        <v>98236.9020769353</v>
+        <v>98268.7606500632</v>
       </c>
       <c r="D17" t="n">
-        <v>94499.7443361931</v>
+        <v>91181.5963859742</v>
       </c>
       <c r="E17" t="n">
-        <v>120328.711995758</v>
+        <v>121778.828176746</v>
       </c>
       <c r="F17" t="n">
-        <v>126393.347042868</v>
+        <v>128220.389431234</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>110385</v>
       </c>
       <c r="I17" t="n">
-        <v>-549.941469236932</v>
+        <v>-805.858392058362</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>107038.031971273</v>
+        <v>108341.714668083</v>
       </c>
       <c r="C18" t="n">
-        <v>94038.0405705745</v>
+        <v>96353.4567823774</v>
       </c>
       <c r="D18" t="n">
-        <v>89694.4825394052</v>
+        <v>88544.2117704693</v>
       </c>
       <c r="E18" t="n">
-        <v>120415.394507972</v>
+        <v>119894.631554426</v>
       </c>
       <c r="F18" t="n">
-        <v>128169.945303003</v>
+        <v>125471.837863696</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>105393</v>
       </c>
       <c r="I18" t="n">
-        <v>1645.0319712725</v>
+        <v>2948.714668083</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>102714.003854148</v>
+        <v>102749.674759677</v>
       </c>
       <c r="C19" t="n">
-        <v>91605.5477800247</v>
+        <v>89700.0573664954</v>
       </c>
       <c r="D19" t="n">
-        <v>84685.7213886162</v>
+        <v>80278.2343342186</v>
       </c>
       <c r="E19" t="n">
-        <v>114099.258595464</v>
+        <v>116755.828551107</v>
       </c>
       <c r="F19" t="n">
-        <v>118801.715456714</v>
+        <v>123353.557965174</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>101633</v>
       </c>
       <c r="I19" t="n">
-        <v>1081.00385414783</v>
+        <v>1116.67475967693</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>108966.14750228</v>
+        <v>110236.199962655</v>
       </c>
       <c r="C20" t="n">
-        <v>96221.2495293222</v>
+        <v>97719.7665743223</v>
       </c>
       <c r="D20" t="n">
-        <v>87730.7086466225</v>
+        <v>87166.0373001881</v>
       </c>
       <c r="E20" t="n">
-        <v>120958.165217976</v>
+        <v>122841.411928273</v>
       </c>
       <c r="F20" t="n">
-        <v>127021.896434381</v>
+        <v>129195.248563526</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>112287</v>
       </c>
       <c r="I20" t="n">
-        <v>-3320.85249772</v>
+        <v>-2050.80003734525</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>109272.545709511</v>
+        <v>110925.289890391</v>
       </c>
       <c r="C21" t="n">
-        <v>96982.116936506</v>
+        <v>99357.1057271188</v>
       </c>
       <c r="D21" t="n">
-        <v>87682.4221560599</v>
+        <v>90506.6442728902</v>
       </c>
       <c r="E21" t="n">
-        <v>122308.197672805</v>
+        <v>124300.461602894</v>
       </c>
       <c r="F21" t="n">
-        <v>131231.308787425</v>
+        <v>130558.238230596</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>102061</v>
       </c>
       <c r="I21" t="n">
-        <v>7211.5457095107</v>
+        <v>8864.2898903905</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>100499.04058376</v>
+        <v>100825.704649805</v>
       </c>
       <c r="C22" t="n">
-        <v>85749.952888756</v>
+        <v>88757.3375848291</v>
       </c>
       <c r="D22" t="n">
-        <v>78613.7838959501</v>
+        <v>80567.4018880615</v>
       </c>
       <c r="E22" t="n">
-        <v>113598.358885339</v>
+        <v>112809.42997427</v>
       </c>
       <c r="F22" t="n">
-        <v>119486.405169342</v>
+        <v>118008.061938869</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>101701</v>
       </c>
       <c r="I22" t="n">
-        <v>-1201.95941623954</v>
+        <v>-875.295350194676</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>98458.3774440762</v>
+        <v>98959.3754930588</v>
       </c>
       <c r="C23" t="n">
-        <v>83348.6378667123</v>
+        <v>86522.8746503605</v>
       </c>
       <c r="D23" t="n">
-        <v>76781.731937332</v>
+        <v>79109.5682433232</v>
       </c>
       <c r="E23" t="n">
-        <v>112562.50177281</v>
+        <v>113215.842174327</v>
       </c>
       <c r="F23" t="n">
-        <v>119768.406794057</v>
+        <v>118604.562008163</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>95942</v>
       </c>
       <c r="I23" t="n">
-        <v>2516.37744407625</v>
+        <v>3017.37549305882</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>101438.987106963</v>
+        <v>101545.877311984</v>
       </c>
       <c r="C24" t="n">
-        <v>89647.1102982218</v>
+        <v>88864.6613017784</v>
       </c>
       <c r="D24" t="n">
-        <v>78498.8309156265</v>
+        <v>80755.9392219635</v>
       </c>
       <c r="E24" t="n">
-        <v>113901.64974041</v>
+        <v>115466.114703704</v>
       </c>
       <c r="F24" t="n">
-        <v>120803.497159426</v>
+        <v>122418.928835946</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>102598</v>
       </c>
       <c r="I24" t="n">
-        <v>-1159.01289303672</v>
+        <v>-1052.12268801573</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>101519.182301027</v>
+        <v>102415.309209693</v>
       </c>
       <c r="C25" t="n">
-        <v>87448.4991470692</v>
+        <v>87915.8205960265</v>
       </c>
       <c r="D25" t="n">
-        <v>78707.9106074002</v>
+        <v>81038.3868456319</v>
       </c>
       <c r="E25" t="n">
-        <v>115474.538668296</v>
+        <v>117979.028138881</v>
       </c>
       <c r="F25" t="n">
-        <v>124534.653895013</v>
+        <v>123854.344932013</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>108157</v>
       </c>
       <c r="I25" t="n">
-        <v>-6637.81769897255</v>
+        <v>-5741.69079030704</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>103519.459232174</v>
+        <v>103851.271472462</v>
       </c>
       <c r="C26" t="n">
-        <v>87666.3894791565</v>
+        <v>90820.466314217</v>
       </c>
       <c r="D26" t="n">
-        <v>76029.4099193211</v>
+        <v>82758.465335473</v>
       </c>
       <c r="E26" t="n">
-        <v>118870.805155443</v>
+        <v>117719.426869871</v>
       </c>
       <c r="F26" t="n">
-        <v>128382.341667272</v>
+        <v>122437.290307145</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>109531</v>
       </c>
       <c r="I26" t="n">
-        <v>-6011.54076782639</v>
+        <v>-5679.72852753849</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>95472.7652742265</v>
+        <v>96793.5148552549</v>
       </c>
       <c r="C27" t="n">
-        <v>81756.9405654818</v>
+        <v>82616.1800917821</v>
       </c>
       <c r="D27" t="n">
-        <v>67825.432892248</v>
+        <v>74150.7209257307</v>
       </c>
       <c r="E27" t="n">
-        <v>110222.605187097</v>
+        <v>111102.09723838</v>
       </c>
       <c r="F27" t="n">
-        <v>120447.181087445</v>
+        <v>120714.258832478</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,10 +1248,10 @@
         <v>96787</v>
       </c>
       <c r="I27" t="n">
-        <v>-1314.23472577354</v>
+        <v>6.51485525486351</v>
       </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>118786.712249223</v>
+        <v>119253.892776864</v>
       </c>
       <c r="C28" t="n">
-        <v>101984.006953362</v>
+        <v>103399.327631769</v>
       </c>
       <c r="D28" t="n">
-        <v>93216.0077059961</v>
+        <v>97277.3122210682</v>
       </c>
       <c r="E28" t="n">
-        <v>134545.818582269</v>
+        <v>133790.869005964</v>
       </c>
       <c r="F28" t="n">
-        <v>141534.748437636</v>
+        <v>143361.994245766</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>114003</v>
       </c>
       <c r="I28" t="n">
-        <v>4783.71224922292</v>
+        <v>5250.89277686423</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>108911.71026545</v>
+        <v>109614.993498349</v>
       </c>
       <c r="C29" t="n">
-        <v>92901.803662166</v>
+        <v>94528.3043537226</v>
       </c>
       <c r="D29" t="n">
-        <v>80273.7495888816</v>
+        <v>87181.1313810283</v>
       </c>
       <c r="E29" t="n">
-        <v>123978.092959614</v>
+        <v>126463.616956712</v>
       </c>
       <c r="F29" t="n">
-        <v>134177.709915302</v>
+        <v>131050.412981514</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>95933</v>
       </c>
       <c r="I29" t="n">
-        <v>12978.7102654499</v>
+        <v>13681.9934983485</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>108666.17660849</v>
+        <v>108768.396684865</v>
       </c>
       <c r="C30" t="n">
-        <v>93237.7918208784</v>
+        <v>94250.5874127522</v>
       </c>
       <c r="D30" t="n">
-        <v>82581.4406187116</v>
+        <v>87080.2642865825</v>
       </c>
       <c r="E30" t="n">
-        <v>123699.521471153</v>
+        <v>124252.631740845</v>
       </c>
       <c r="F30" t="n">
-        <v>130794.002577818</v>
+        <v>130344.758219009</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>102912</v>
       </c>
       <c r="I30" t="n">
-        <v>5754.17660849016</v>
+        <v>5856.39668486502</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>103325.074469957</v>
+        <v>103426.638774069</v>
       </c>
       <c r="C31" t="n">
-        <v>87682.0150094303</v>
+        <v>86857.0251755252</v>
       </c>
       <c r="D31" t="n">
-        <v>76477.271953444</v>
+        <v>78987.1990889364</v>
       </c>
       <c r="E31" t="n">
-        <v>118857.04056771</v>
+        <v>119433.481086007</v>
       </c>
       <c r="F31" t="n">
-        <v>127933.172178534</v>
+        <v>126456.78646425</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>106846</v>
       </c>
       <c r="I31" t="n">
-        <v>-3520.92553004299</v>
+        <v>-3419.36122593124</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>110367.555298735</v>
+        <v>110000.868605255</v>
       </c>
       <c r="C32" t="n">
-        <v>96229.4418094816</v>
+        <v>93246.3205727061</v>
       </c>
       <c r="D32" t="n">
-        <v>85233.546856404</v>
+        <v>87089.2961438683</v>
       </c>
       <c r="E32" t="n">
-        <v>126620.942303458</v>
+        <v>124807.957948623</v>
       </c>
       <c r="F32" t="n">
-        <v>136226.173782882</v>
+        <v>130709.383273555</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>112648</v>
       </c>
       <c r="I32" t="n">
-        <v>-2280.44470126515</v>
+        <v>-2647.13139474492</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>109341.490109569</v>
+        <v>109584.665685929</v>
       </c>
       <c r="C33" t="n">
-        <v>92104.5986131537</v>
+        <v>92788.5775962022</v>
       </c>
       <c r="D33" t="n">
-        <v>78861.4376824393</v>
+        <v>84833.2679225355</v>
       </c>
       <c r="E33" t="n">
-        <v>124521.084919936</v>
+        <v>126586.004834867</v>
       </c>
       <c r="F33" t="n">
-        <v>133162.680704199</v>
+        <v>135607.5220859</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>115375</v>
       </c>
       <c r="I33" t="n">
-        <v>-6033.50989043139</v>
+        <v>-5790.33431407119</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>100655.032345732</v>
+        <v>100929.5363166</v>
       </c>
       <c r="C34" t="n">
-        <v>82335.6798221176</v>
+        <v>87392.1899858791</v>
       </c>
       <c r="D34" t="n">
-        <v>73725.2850829466</v>
+        <v>79848.9355968345</v>
       </c>
       <c r="E34" t="n">
-        <v>116840.131541711</v>
+        <v>115262.617603579</v>
       </c>
       <c r="F34" t="n">
-        <v>125896.477425554</v>
+        <v>122870.916326509</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>101083</v>
       </c>
       <c r="I34" t="n">
-        <v>-427.967654268068</v>
+        <v>-153.463683399576</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>99130.1351638771</v>
+        <v>99210.5824857771</v>
       </c>
       <c r="C35" t="n">
-        <v>80847.6580475611</v>
+        <v>81556.6666037583</v>
       </c>
       <c r="D35" t="n">
-        <v>68422.3784480017</v>
+        <v>73806.3165092947</v>
       </c>
       <c r="E35" t="n">
-        <v>117120.596509911</v>
+        <v>115130.870760714</v>
       </c>
       <c r="F35" t="n">
-        <v>123173.954772165</v>
+        <v>123788.382149187</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>90015</v>
       </c>
       <c r="I35" t="n">
-        <v>9115.13516387709</v>
+        <v>9195.58248577706</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>103453.566927349</v>
+        <v>102428.912829829</v>
       </c>
       <c r="C36" t="n">
-        <v>86014.054958773</v>
+        <v>86029.5870627805</v>
       </c>
       <c r="D36" t="n">
-        <v>75043.1959867412</v>
+        <v>77693.0850759337</v>
       </c>
       <c r="E36" t="n">
-        <v>122261.291808015</v>
+        <v>118244.972159115</v>
       </c>
       <c r="F36" t="n">
-        <v>131230.023558473</v>
+        <v>128255.086156274</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>86371</v>
       </c>
       <c r="I36" t="n">
-        <v>17082.5669273485</v>
+        <v>16057.9128298295</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>102261.519678407</v>
+        <v>102420.500200667</v>
       </c>
       <c r="C37" t="n">
-        <v>84545.6150520111</v>
+        <v>85286.9210993913</v>
       </c>
       <c r="D37" t="n">
-        <v>72986.6122705287</v>
+        <v>81108.5848457417</v>
       </c>
       <c r="E37" t="n">
-        <v>120438.025646081</v>
+        <v>119715.559268279</v>
       </c>
       <c r="F37" t="n">
-        <v>129534.633998679</v>
+        <v>127449.847221827</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>59498</v>
       </c>
       <c r="I37" t="n">
-        <v>42763.5196784072</v>
+        <v>42922.5002006666</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>102827.759410692</v>
+        <v>103387.028781636</v>
       </c>
       <c r="C38" t="n">
-        <v>83865.1660148164</v>
+        <v>86047.0805793382</v>
       </c>
       <c r="D38" t="n">
-        <v>73932.0707285099</v>
+        <v>78778.7754989016</v>
       </c>
       <c r="E38" t="n">
-        <v>122119.609078924</v>
+        <v>120580.155913461</v>
       </c>
       <c r="F38" t="n">
-        <v>135043.015690415</v>
+        <v>129902.41872142</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>74790</v>
       </c>
       <c r="I38" t="n">
-        <v>28037.7594106916</v>
+        <v>28597.0287816357</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>97102.7041906005</v>
+        <v>96880.2294800994</v>
       </c>
       <c r="C39" t="n">
-        <v>78765.1035066193</v>
+        <v>79254.8904366382</v>
       </c>
       <c r="D39" t="n">
-        <v>67857.1007688195</v>
+        <v>71148.2214273314</v>
       </c>
       <c r="E39" t="n">
-        <v>116798.133649099</v>
+        <v>114068.942109086</v>
       </c>
       <c r="F39" t="n">
-        <v>127402.931691402</v>
+        <v>125060.737462085</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>116063</v>
       </c>
       <c r="I39" t="n">
-        <v>-18960.2958093995</v>
+        <v>-19182.7705199006</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>119393.607705133</v>
+        <v>119473.595983416</v>
       </c>
       <c r="C40" t="n">
-        <v>99258.609156241</v>
+        <v>102218.49543226</v>
       </c>
       <c r="D40" t="n">
-        <v>89340.5479689106</v>
+        <v>93017.5633544325</v>
       </c>
       <c r="E40" t="n">
-        <v>138452.885803007</v>
+        <v>135194.859216929</v>
       </c>
       <c r="F40" t="n">
-        <v>147953.269479589</v>
+        <v>148211.212834357</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>126932</v>
       </c>
       <c r="I40" t="n">
-        <v>-7538.39229486715</v>
+        <v>-7458.40401658375</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>109880.058157157</v>
+        <v>110346.475261224</v>
       </c>
       <c r="C41" t="n">
-        <v>90410.4801120039</v>
+        <v>90210.8606425608</v>
       </c>
       <c r="D41" t="n">
-        <v>82805.7888769572</v>
+        <v>85576.3367435275</v>
       </c>
       <c r="E41" t="n">
-        <v>127833.667135551</v>
+        <v>130567.635346694</v>
       </c>
       <c r="F41" t="n">
-        <v>136404.352828334</v>
+        <v>136684.746490198</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>116400</v>
       </c>
       <c r="I41" t="n">
-        <v>-6519.94184284277</v>
+        <v>-6053.52473877561</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>108257.396821957</v>
+        <v>108754.988920365</v>
       </c>
       <c r="C42" t="n">
-        <v>88679.7122062125</v>
+        <v>90725.3010179263</v>
       </c>
       <c r="D42" t="n">
-        <v>78842.5971192362</v>
+        <v>83195.3159924089</v>
       </c>
       <c r="E42" t="n">
-        <v>127175.017699769</v>
+        <v>127971.252735028</v>
       </c>
       <c r="F42" t="n">
-        <v>137214.39975472</v>
+        <v>135049.453362954</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>115934</v>
       </c>
       <c r="I42" t="n">
-        <v>-7676.60317804331</v>
+        <v>-7179.01107963511</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>103341.875335412</v>
+        <v>104979.277640496</v>
       </c>
       <c r="C43" t="n">
-        <v>82818.7461285227</v>
+        <v>86103.4399615853</v>
       </c>
       <c r="D43" t="n">
-        <v>73412.0691851546</v>
+        <v>77102.1884096703</v>
       </c>
       <c r="E43" t="n">
-        <v>123445.271943092</v>
+        <v>124331.343363787</v>
       </c>
       <c r="F43" t="n">
-        <v>136594.269430415</v>
+        <v>133544.207800155</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>110063</v>
       </c>
       <c r="I43" t="n">
-        <v>-6721.12466458819</v>
+        <v>-5083.72235950375</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>111170.048385354</v>
+        <v>110944.620315997</v>
       </c>
       <c r="C44" t="n">
-        <v>91423.8865534161</v>
+        <v>90485.280393434</v>
       </c>
       <c r="D44" t="n">
-        <v>77618.5705350847</v>
+        <v>85154.0289518655</v>
       </c>
       <c r="E44" t="n">
-        <v>129995.975389325</v>
+        <v>127703.095827088</v>
       </c>
       <c r="F44" t="n">
-        <v>145731.862259283</v>
+        <v>140990.613320479</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>125116</v>
       </c>
       <c r="I44" t="n">
-        <v>-13945.9516146462</v>
+        <v>-14171.3796840029</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>110652.786154448</v>
+        <v>111023.029995086</v>
       </c>
       <c r="C45" t="n">
-        <v>90973.2187806295</v>
+        <v>93887.5009861691</v>
       </c>
       <c r="D45" t="n">
-        <v>82103.4979313152</v>
+        <v>83649.0911738421</v>
       </c>
       <c r="E45" t="n">
-        <v>131869.340528219</v>
+        <v>128638.729357322</v>
       </c>
       <c r="F45" t="n">
-        <v>144289.796898232</v>
+        <v>139088.821690189</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>138875</v>
       </c>
       <c r="I45" t="n">
-        <v>-28222.213845552</v>
+        <v>-27851.9700049135</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>101484.545360559</v>
+        <v>101828.234500578</v>
       </c>
       <c r="C46" t="n">
-        <v>78057.0950321595</v>
+        <v>82296.0683897671</v>
       </c>
       <c r="D46" t="n">
-        <v>68819.5678951075</v>
+        <v>76623.9689084089</v>
       </c>
       <c r="E46" t="n">
-        <v>121905.230706315</v>
+        <v>121585.633466129</v>
       </c>
       <c r="F46" t="n">
-        <v>138823.981023281</v>
+        <v>130004.840799466</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>123495</v>
       </c>
       <c r="I46" t="n">
-        <v>-22010.4546394406</v>
+        <v>-21666.7654994216</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>98807.5096304694</v>
+        <v>100430.93541504</v>
       </c>
       <c r="C47" t="n">
-        <v>77412.8213083349</v>
+        <v>81889.9014816468</v>
       </c>
       <c r="D47" t="n">
-        <v>64243.5087976046</v>
+        <v>73971.5223721806</v>
       </c>
       <c r="E47" t="n">
-        <v>120694.926630345</v>
+        <v>119609.385206061</v>
       </c>
       <c r="F47" t="n">
-        <v>130575.833532657</v>
+        <v>130514.696514445</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>129041</v>
       </c>
       <c r="I47" t="n">
-        <v>-30233.4903695306</v>
+        <v>-28610.0645849604</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>102164.902798288</v>
+        <v>103157.020837303</v>
       </c>
       <c r="C48" t="n">
-        <v>81467.3278543637</v>
+        <v>82763.0808915184</v>
       </c>
       <c r="D48" t="n">
-        <v>71908.3757570809</v>
+        <v>75532.3281891195</v>
       </c>
       <c r="E48" t="n">
-        <v>123654.502084802</v>
+        <v>122944.124672193</v>
       </c>
       <c r="F48" t="n">
-        <v>137211.230528039</v>
+        <v>131669.315435886</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>132270</v>
       </c>
       <c r="I48" t="n">
-        <v>-30105.0972017124</v>
+        <v>-29112.9791626969</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>102703.595757588</v>
+        <v>103533.447503866</v>
       </c>
       <c r="C49" t="n">
-        <v>80431.556440804</v>
+        <v>81444.6231611952</v>
       </c>
       <c r="D49" t="n">
-        <v>74529.0547420152</v>
+        <v>75567.8460691918</v>
       </c>
       <c r="E49" t="n">
-        <v>124663.904330357</v>
+        <v>123177.071203751</v>
       </c>
       <c r="F49" t="n">
-        <v>131540.299534322</v>
+        <v>136805.303480717</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>121415</v>
       </c>
       <c r="I49" t="n">
-        <v>-18711.4042424122</v>
+        <v>-17881.5524961341</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
